--- a/stage_1/Formulas_Functions/COUNT_function.xlsx
+++ b/stage_1/Formulas_Functions/COUNT_function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Beginners/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4212B236-F497-48BB-88A5-0D8FF680B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{263553AC-0795-422C-AF40-0B2BA89052F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AE735-B60B-4E64-A73B-28F3E97BDC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
   <sheets>
     <sheet name="COUNT Function" sheetId="1" r:id="rId1"/>
@@ -492,21 +492,21 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -516,9 +516,12 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="4">
+        <f xml:space="preserve"> COUNT(C3:C15)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,7 +529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,7 +537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -542,7 +545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -550,7 +553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -558,7 +561,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -566,7 +569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -574,7 +577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -582,7 +585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -590,7 +593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -598,7 +601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -606,7 +609,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -614,7 +617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>

--- a/stage_1/Formulas_Functions/COUNT_function.xlsx
+++ b/stage_1/Formulas_Functions/COUNT_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AE735-B60B-4E64-A73B-28F3E97BDC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1A967-35E0-47BB-9F26-45843910F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Test Score</t>
   </si>
@@ -492,7 +492,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,6 +528,13 @@
       <c r="C3" s="1">
         <v>80</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <f xml:space="preserve"> COUNTA(B3:B15)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">

--- a/stage_1/Formulas_Functions/COUNT_function.xlsx
+++ b/stage_1/Formulas_Functions/COUNT_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1A967-35E0-47BB-9F26-45843910F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA23D66-82B5-4385-A7E9-FD3973D7B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Test Score</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">No. of Students </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of Blanks </t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F30019-4F52-4BA0-AE58-453B45939140}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +520,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4">
-        <f xml:space="preserve"> COUNT(C3:C15)</f>
+        <f xml:space="preserve"> COUNT(C3:C17)</f>
         <v>13</v>
       </c>
     </row>
@@ -532,7 +535,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="4">
-        <f xml:space="preserve"> COUNTA(B3:B15)</f>
+        <f xml:space="preserve"> COUNTA(B3:B17)</f>
         <v>13</v>
       </c>
     </row>
@@ -543,92 +546,107 @@
       <c r="C4" s="1">
         <v>95</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4">
+        <f xml:space="preserve"> COUNTA(B4:B18)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>72</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="1">
         <v>24</v>
       </c>
     </row>

--- a/stage_1/Formulas_Functions/COUNT_function.xlsx
+++ b/stage_1/Formulas_Functions/COUNT_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA23D66-82B5-4385-A7E9-FD3973D7B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7440F48-2F96-4FB2-8AC3-64B0D032B259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F30019-4F52-4BA0-AE58-453B45939140}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,8 +550,8 @@
         <v>16</v>
       </c>
       <c r="G4" s="4">
-        <f xml:space="preserve"> COUNTA(B4:B18)</f>
-        <v>12</v>
+        <f xml:space="preserve"> COUNTBLANK(B3:B17)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">

--- a/stage_1/Formulas_Functions/COUNT_function.xlsx
+++ b/stage_1/Formulas_Functions/COUNT_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7440F48-2F96-4FB2-8AC3-64B0D032B259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFEB528-EA23-4789-8CAA-CAB3A4D6E9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F30019-4F52-4BA0-AE58-453B45939140}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
